--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Mcam</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Mcam</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N2">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O2">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P2">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q2">
-        <v>5.728321464155334</v>
+        <v>6.666514027232</v>
       </c>
       <c r="R2">
-        <v>51.55489317739799</v>
+        <v>59.998626245088</v>
       </c>
       <c r="S2">
-        <v>0.005710102103561023</v>
+        <v>0.01026118128163778</v>
       </c>
       <c r="T2">
-        <v>0.006783107451194635</v>
+        <v>0.01063321089996756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P3">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q3">
-        <v>0.2187710401037778</v>
+        <v>0.2313694073226667</v>
       </c>
       <c r="R3">
-        <v>1.968939360934</v>
+        <v>2.082324665904</v>
       </c>
       <c r="S3">
-        <v>0.0002180752222289982</v>
+        <v>0.0003561266685804505</v>
       </c>
       <c r="T3">
-        <v>0.0002590545034037034</v>
+        <v>0.0003690384050513894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N4">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O4">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P4">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q4">
-        <v>0.04293668385644445</v>
+        <v>0.04756020632000001</v>
       </c>
       <c r="R4">
-        <v>0.386430154708</v>
+        <v>0.42804185688</v>
       </c>
       <c r="S4">
-        <v>4.280012047905728E-05</v>
+        <v>7.320526092768864E-05</v>
       </c>
       <c r="T4">
-        <v>5.084284148832803E-05</v>
+        <v>7.585939250719745E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N5">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O5">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P5">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q5">
-        <v>5.199984463405333</v>
+        <v>0.8170230358960001</v>
       </c>
       <c r="R5">
-        <v>31.199906780432</v>
+        <v>4.902138215376</v>
       </c>
       <c r="S5">
-        <v>0.005183445518687159</v>
+        <v>0.001257572015652665</v>
       </c>
       <c r="T5">
-        <v>0.004104989984766515</v>
+        <v>0.0008687777165423187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.068624</v>
+      </c>
+      <c r="H6">
+        <v>0.205872</v>
+      </c>
+      <c r="I6">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J6">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.194662</v>
-      </c>
-      <c r="I6">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J6">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N6">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O6">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P6">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q6">
-        <v>0.03187774097444444</v>
+        <v>0.02148189683733334</v>
       </c>
       <c r="R6">
-        <v>0.2868996687699999</v>
+        <v>0.193337071536</v>
       </c>
       <c r="S6">
-        <v>3.177635140310497E-05</v>
+        <v>3.306520271627527E-05</v>
       </c>
       <c r="T6">
-        <v>3.774755723540573E-05</v>
+        <v>3.426401544639878E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N7">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O7">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P7">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q7">
-        <v>499.5859241517057</v>
+        <v>549.7503398008807</v>
       </c>
       <c r="R7">
-        <v>4496.273317365351</v>
+        <v>4947.753058207926</v>
       </c>
       <c r="S7">
-        <v>0.4979969532538751</v>
+        <v>0.8461825585749259</v>
       </c>
       <c r="T7">
-        <v>0.591577310357019</v>
+        <v>0.8768617723675211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>10.114657</v>
       </c>
       <c r="O8">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P8">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q8">
         <v>19.07974839257589</v>
@@ -948,10 +948,10 @@
         <v>171.717735533183</v>
       </c>
       <c r="S8">
-        <v>0.01901906380666564</v>
+        <v>0.02936778596197574</v>
       </c>
       <c r="T8">
-        <v>0.02259300290642539</v>
+        <v>0.03043254506745764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N9">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O9">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P9">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q9">
-        <v>3.744650683216223</v>
+        <v>3.922025736181668</v>
       </c>
       <c r="R9">
-        <v>33.701856148946</v>
+        <v>35.298231625635</v>
       </c>
       <c r="S9">
-        <v>0.003732740537892822</v>
+        <v>0.006036830779296944</v>
       </c>
       <c r="T9">
-        <v>0.004434172926639416</v>
+        <v>0.006255702251216287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N10">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O10">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P10">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q10">
-        <v>453.5079010458307</v>
+        <v>67.37534636156285</v>
       </c>
       <c r="R10">
-        <v>2721.047406274984</v>
+        <v>404.2520781693771</v>
       </c>
       <c r="S10">
-        <v>0.4520654847929675</v>
+        <v>0.1037049708595883</v>
       </c>
       <c r="T10">
-        <v>0.358009798857452</v>
+        <v>0.07164326707025344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,350 +1104,40 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N11">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O11">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P11">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q11">
-        <v>2.780163575707222</v>
+        <v>1.771492572827445</v>
       </c>
       <c r="R11">
-        <v>25.021472181365</v>
+        <v>15.943433155447</v>
       </c>
       <c r="S11">
-        <v>0.00277132105473246</v>
+        <v>0.0027267033946983</v>
       </c>
       <c r="T11">
-        <v>0.003292089730634609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>88.281043</v>
-      </c>
-      <c r="N12">
-        <v>264.843129</v>
-      </c>
-      <c r="O12">
-        <v>0.5104595351890647</v>
-      </c>
-      <c r="P12">
-        <v>0.6037079925017727</v>
-      </c>
-      <c r="Q12">
-        <v>6.774025131997501</v>
-      </c>
-      <c r="R12">
-        <v>40.644150791985</v>
-      </c>
-      <c r="S12">
-        <v>0.006752479831628612</v>
-      </c>
-      <c r="T12">
-        <v>0.005347574693559014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.371552333333333</v>
-      </c>
-      <c r="N13">
-        <v>10.114657</v>
-      </c>
-      <c r="O13">
-        <v>0.01949502382905625</v>
-      </c>
-      <c r="P13">
-        <v>0.02305628730248842</v>
-      </c>
-      <c r="Q13">
-        <v>0.2587076394175</v>
-      </c>
-      <c r="R13">
-        <v>1.552245836505</v>
-      </c>
-      <c r="S13">
-        <v>0.0002578848001616125</v>
-      </c>
-      <c r="T13">
-        <v>0.0002042298926593241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.6617113333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.985134</v>
-      </c>
-      <c r="O14">
-        <v>0.003826153930268694</v>
-      </c>
-      <c r="P14">
-        <v>0.00452509856122042</v>
-      </c>
-      <c r="Q14">
-        <v>0.050774764885</v>
-      </c>
-      <c r="R14">
-        <v>0.3046485893100001</v>
-      </c>
-      <c r="S14">
-        <v>5.061327189681494E-05</v>
-      </c>
-      <c r="T14">
-        <v>4.00827930926748E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>80.138668</v>
-      </c>
-      <c r="N15">
-        <v>160.277336</v>
-      </c>
-      <c r="O15">
-        <v>0.4633786125289749</v>
-      </c>
-      <c r="P15">
-        <v>0.365351025436994</v>
-      </c>
-      <c r="Q15">
-        <v>6.149240342310001</v>
-      </c>
-      <c r="R15">
-        <v>24.59696136924</v>
-      </c>
-      <c r="S15">
-        <v>0.006129682217320214</v>
-      </c>
-      <c r="T15">
-        <v>0.003236236594775525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4912783333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.473835</v>
-      </c>
-      <c r="O16">
-        <v>0.00284067452263553</v>
-      </c>
-      <c r="P16">
-        <v>0.003359596197524347</v>
-      </c>
-      <c r="Q16">
-        <v>0.0376970147125</v>
-      </c>
-      <c r="R16">
-        <v>0.226182088275</v>
-      </c>
-      <c r="S16">
-        <v>3.757711649996536E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.975890965433183E-05</v>
+        <v>0.002825562814036636</v>
       </c>
     </row>
   </sheetData>
